--- a/datalists/npr1_40_r_list.xlsx
+++ b/datalists/npr1_40_r_list.xlsx
@@ -120,7 +120,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
+        <v>12500.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>24500.0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>26000.0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="2">
@@ -128,7 +137,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
+        <v>15000.0</v>
+      </c>
+      <c r="C2" s="2">
         <v>21000.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23500.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="3">
@@ -136,7 +154,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>8000.0</v>
+      </c>
+      <c r="C3" s="2">
         <v>16000.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18000.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="4">
@@ -144,7 +171,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>18000.0</v>
+        <v>9000.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18000.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19000.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="5">
@@ -152,7 +188,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>18000.0</v>
+        <v>11600.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18000.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +205,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C6" s="2">
         <v>23500.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="7">
@@ -168,7 +222,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>30000.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32400.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32400.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="8">
@@ -176,7 +239,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="C8" s="2">
         <v>13500.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>16000.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="9">
@@ -184,7 +256,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
+        <v>12000.0</v>
+      </c>
+      <c r="C9" s="2">
         <v>15800.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18000.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="10">
@@ -192,7 +273,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="C10" s="2">
         <v>24500.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>27000.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="11">
@@ -200,7 +290,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C11" s="2">
         <v>8000.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="12">
@@ -208,7 +307,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
+        <v>9000.0</v>
+      </c>
+      <c r="C12" s="2">
         <v>19000.0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25000.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="13">
@@ -216,7 +324,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>18000.0</v>
+        <v>13000.0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18000.0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22000.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>32400.0</v>
       </c>
     </row>
   </sheetData>
